--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B66EEE0E-7793-4D98-9BEE-A78371A6E345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91990\git\GUIFramework1\GUISeleniumFramework\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98944149-004E-4E04-B525-30BBA14F01B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11620" windowHeight="6330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="contact" sheetId="3" r:id="rId1"/>
-    <sheet name="org" sheetId="1" r:id="rId2"/>
-    <sheet name="product" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="openAcc" sheetId="5" r:id="rId1"/>
+    <sheet name="fundTransfer" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E15"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,22 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
-  <si>
-    <t>TC_ID</t>
-  </si>
-  <si>
-    <t>TestcaseName</t>
-  </si>
-  <si>
-    <t>organizationName</t>
-  </si>
-  <si>
-    <t>tc_01</t>
-  </si>
-  <si>
-    <t>createorgtest</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="335">
   <si>
     <t>ProductCat</t>
   </si>
@@ -353,110 +341,725 @@
     <t>v-50</t>
   </si>
   <si>
-    <t>createOrgWithType</t>
-  </si>
-  <si>
-    <t>tc_02</t>
-  </si>
-  <si>
-    <t>tc_03</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>createOrgWithPhoneNumber</t>
-  </si>
-  <si>
-    <t>Industries</t>
-  </si>
-  <si>
-    <t>tc_04</t>
-  </si>
-  <si>
-    <t>tc_05</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>createContactWithSupportDateTest</t>
-  </si>
-  <si>
-    <t>createContactWithOrgTest</t>
-  </si>
-  <si>
-    <t>OrgName</t>
-  </si>
-  <si>
-    <t>ContactLastName</t>
-  </si>
-  <si>
-    <t>instagram_</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Press</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>Deepak_</t>
-  </si>
-  <si>
-    <t>tc_06</t>
-  </si>
-  <si>
-    <t>FaceBook_</t>
-  </si>
-  <si>
-    <t>createcontactTest</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>9880008898</t>
-  </si>
-  <si>
-    <t>DeleteOrgTest</t>
-  </si>
-  <si>
-    <t>BrandName</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>iphone</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 (128GB) - Black</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro (1 TB) - Space Black</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max (128 GB) - Space Black</t>
-  </si>
-  <si>
-    <t>faceBook_kdd</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Mobile no</t>
+  </si>
+  <si>
+    <t>Email id</t>
+  </si>
+  <si>
+    <t>Landlineno</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>PAN Number</t>
+  </si>
+  <si>
+    <t>Citizenship Number</t>
+  </si>
+  <si>
+    <t>Home Address</t>
+  </si>
+  <si>
+    <t>Office Address</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Pin Code</t>
+  </si>
+  <si>
+    <t>Area/Locality</t>
+  </si>
+  <si>
+    <t>Nominee Name</t>
+  </si>
+  <si>
+    <t>Nominee Account no</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>BTOP12AB34</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Red Oak</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>Account No.</t>
+  </si>
+  <si>
+    <t>Application No.</t>
+  </si>
+  <si>
+    <t>vinay123@gmail.com</t>
+  </si>
+  <si>
+    <t>btm lake, btm 2nd stage, bangalore</t>
+  </si>
+  <si>
+    <t>3rd floor, gopalan coworks, katriguppe, bangalore</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>vinay</t>
+  </si>
+  <si>
+    <t>9886866277</t>
+  </si>
+  <si>
+    <t>256183</t>
+  </si>
+  <si>
+    <t>123098567</t>
+  </si>
+  <si>
+    <t>572218</t>
+  </si>
+  <si>
+    <t>98765432</t>
+  </si>
+  <si>
+    <t>01-01-2000</t>
+  </si>
+  <si>
+    <t>Account Holder Name</t>
+  </si>
+  <si>
+    <t>debit card no</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>vinay@123</t>
+  </si>
+  <si>
+    <t>Last Transaction</t>
+  </si>
+  <si>
+    <t>customer ID</t>
+  </si>
+  <si>
+    <t>Beneficiary_name</t>
+  </si>
+  <si>
+    <t>Benificiary_Acc_no.</t>
+  </si>
+  <si>
+    <t>IFSC_Code</t>
+  </si>
+  <si>
+    <t>Acc_Type</t>
+  </si>
+  <si>
+    <t>1011401011407</t>
+  </si>
+  <si>
+    <t>vinay krishna</t>
+  </si>
+  <si>
+    <t>Amount to transfer</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>Enjoy the money</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Account Balance</t>
+  </si>
+  <si>
+    <t>new Password</t>
+  </si>
+  <si>
+    <t>krishna@123</t>
+  </si>
+  <si>
+    <t>reason to delete the account</t>
+  </si>
+  <si>
+    <t>Shifting to abroad</t>
+  </si>
+  <si>
+    <t>vinay3612</t>
+  </si>
+  <si>
+    <t>876989585</t>
+  </si>
+  <si>
+    <t>1011991011430</t>
+  </si>
+  <si>
+    <t>421376858281</t>
+  </si>
+  <si>
+    <t>5426</t>
+  </si>
+  <si>
+    <t>1011430</t>
+  </si>
+  <si>
+    <t>$940</t>
+  </si>
+  <si>
+    <t>vinay1505</t>
+  </si>
+  <si>
+    <t>621013706</t>
+  </si>
+  <si>
+    <t>1011361011354</t>
+  </si>
+  <si>
+    <t>vinay1500</t>
+  </si>
+  <si>
+    <t>vinay3648</t>
+  </si>
+  <si>
+    <t>vinay3667</t>
+  </si>
+  <si>
+    <t>vinay3191</t>
+  </si>
+  <si>
+    <t>vinay1788</t>
+  </si>
+  <si>
+    <t>vinay2214</t>
+  </si>
+  <si>
+    <t>vinay2114</t>
+  </si>
+  <si>
+    <t>vinay1723</t>
+  </si>
+  <si>
+    <t>122020807</t>
+  </si>
+  <si>
+    <t>vinay3509</t>
+  </si>
+  <si>
+    <t>889355454</t>
+  </si>
+  <si>
+    <t>vinay3162</t>
+  </si>
+  <si>
+    <t>881557487</t>
+  </si>
+  <si>
+    <t>vinay4193</t>
+  </si>
+  <si>
+    <t>203176156</t>
+  </si>
+  <si>
+    <t>vinay3995</t>
+  </si>
+  <si>
+    <t>266569859</t>
+  </si>
+  <si>
+    <t>vinay2449</t>
+  </si>
+  <si>
+    <t>1011481011452</t>
+  </si>
+  <si>
+    <t>vinay2901</t>
+  </si>
+  <si>
+    <t>858661869</t>
+  </si>
+  <si>
+    <t>1011781011666</t>
+  </si>
+  <si>
+    <t>vinay2820</t>
+  </si>
+  <si>
+    <t>249012487</t>
+  </si>
+  <si>
+    <t>1011471011421</t>
+  </si>
+  <si>
+    <t>vinay3951</t>
+  </si>
+  <si>
+    <t>383222354</t>
+  </si>
+  <si>
+    <t>vinay2586</t>
+  </si>
+  <si>
+    <t>364350121</t>
+  </si>
+  <si>
+    <t>1011891011964</t>
+  </si>
+  <si>
+    <t>vinay1425</t>
+  </si>
+  <si>
+    <t>179195621</t>
+  </si>
+  <si>
+    <t>1011281011606</t>
+  </si>
+  <si>
+    <t>vinay3785</t>
+  </si>
+  <si>
+    <t>967946343</t>
+  </si>
+  <si>
+    <t>1011681011967</t>
+  </si>
+  <si>
+    <t>vinay3610</t>
+  </si>
+  <si>
+    <t>211259804</t>
+  </si>
+  <si>
+    <t>1011381011803</t>
+  </si>
+  <si>
+    <t>421358276087</t>
+  </si>
+  <si>
+    <t>6066</t>
+  </si>
+  <si>
+    <t>vinay3515</t>
+  </si>
+  <si>
+    <t>725821525</t>
+  </si>
+  <si>
+    <t>1011501011126</t>
+  </si>
+  <si>
+    <t>421318065648</t>
+  </si>
+  <si>
+    <t>3580</t>
+  </si>
+  <si>
+    <t>vinay1530</t>
+  </si>
+  <si>
+    <t>172888529</t>
+  </si>
+  <si>
+    <t>1011871011360</t>
+  </si>
+  <si>
+    <t>421380034813</t>
+  </si>
+  <si>
+    <t>2061</t>
+  </si>
+  <si>
+    <t>1011360</t>
+  </si>
+  <si>
+    <t>$900</t>
+  </si>
+  <si>
+    <t>vinay2025</t>
+  </si>
+  <si>
+    <t>635035428</t>
+  </si>
+  <si>
+    <t>1011171011639</t>
+  </si>
+  <si>
+    <t>421313299458</t>
+  </si>
+  <si>
+    <t>9962</t>
+  </si>
+  <si>
+    <t>1011639</t>
+  </si>
+  <si>
+    <t>vinay2056</t>
+  </si>
+  <si>
+    <t>674684399</t>
+  </si>
+  <si>
+    <t>101191011972</t>
+  </si>
+  <si>
+    <t>vinay2345</t>
+  </si>
+  <si>
+    <t>842740427</t>
+  </si>
+  <si>
+    <t>1011111011507</t>
+  </si>
+  <si>
+    <t>vinay1285</t>
+  </si>
+  <si>
+    <t>913256031</t>
+  </si>
+  <si>
+    <t>1011191011620</t>
+  </si>
+  <si>
+    <t>vinay2919</t>
+  </si>
+  <si>
+    <t>800886887</t>
+  </si>
+  <si>
+    <t>vinay1201</t>
+  </si>
+  <si>
+    <t>874782846</t>
+  </si>
+  <si>
+    <t>vinay3389</t>
+  </si>
+  <si>
+    <t>778020274</t>
+  </si>
+  <si>
+    <t>vinay2471</t>
+  </si>
+  <si>
+    <t>631359271</t>
+  </si>
+  <si>
+    <t>1011481011534</t>
+  </si>
+  <si>
+    <t>vinay3139</t>
+  </si>
+  <si>
+    <t>626947398</t>
+  </si>
+  <si>
+    <t>1011471011427</t>
+  </si>
+  <si>
+    <t>vinay283</t>
+  </si>
+  <si>
+    <t>356588187</t>
+  </si>
+  <si>
+    <t>1011571011304</t>
+  </si>
+  <si>
+    <t>vinay1603</t>
+  </si>
+  <si>
+    <t>627048361</t>
+  </si>
+  <si>
+    <t>1011841011691</t>
+  </si>
+  <si>
+    <t>vinay3228</t>
+  </si>
+  <si>
+    <t>620374536</t>
+  </si>
+  <si>
+    <t>1011451011600</t>
+  </si>
+  <si>
+    <t>421377807708</t>
+  </si>
+  <si>
+    <t>8283</t>
+  </si>
+  <si>
+    <t>vinay3778</t>
+  </si>
+  <si>
+    <t>966755277</t>
+  </si>
+  <si>
+    <t>vinay56</t>
+  </si>
+  <si>
+    <t>604080318</t>
+  </si>
+  <si>
+    <t>1011411011341</t>
+  </si>
+  <si>
+    <t>421387134968</t>
+  </si>
+  <si>
+    <t>8550</t>
+  </si>
+  <si>
+    <t>vinay2856</t>
+  </si>
+  <si>
+    <t>116213109</t>
+  </si>
+  <si>
+    <t>1011781011996</t>
+  </si>
+  <si>
+    <t>421326196722</t>
+  </si>
+  <si>
+    <t>2860</t>
+  </si>
+  <si>
+    <t>1011996</t>
+  </si>
+  <si>
+    <t>$740</t>
+  </si>
+  <si>
+    <t>$720</t>
+  </si>
+  <si>
+    <t>vinay110</t>
+  </si>
+  <si>
+    <t>482688286</t>
+  </si>
+  <si>
+    <t>1011361011644</t>
+  </si>
+  <si>
+    <t>vinay2810</t>
+  </si>
+  <si>
+    <t>358764543</t>
+  </si>
+  <si>
+    <t>vinay3636</t>
+  </si>
+  <si>
+    <t>976947757</t>
+  </si>
+  <si>
+    <t>1011181011271</t>
+  </si>
+  <si>
+    <t>421336732218</t>
+  </si>
+  <si>
+    <t>2645</t>
+  </si>
+  <si>
+    <t>1011271</t>
+  </si>
+  <si>
+    <t>vinay3103</t>
+  </si>
+  <si>
+    <t>709580497</t>
+  </si>
+  <si>
+    <t>101111011253</t>
+  </si>
+  <si>
+    <t>421310682196</t>
+  </si>
+  <si>
+    <t>3328</t>
+  </si>
+  <si>
+    <t>vinay4797</t>
+  </si>
+  <si>
+    <t>499259649</t>
+  </si>
+  <si>
+    <t>1011521011855</t>
+  </si>
+  <si>
+    <t>421318467107</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>1011855</t>
+  </si>
+  <si>
+    <t>vinay674</t>
+  </si>
+  <si>
+    <t>210019138</t>
+  </si>
+  <si>
+    <t>1011601011537</t>
+  </si>
+  <si>
+    <t>421342344598</t>
+  </si>
+  <si>
+    <t>3272</t>
+  </si>
+  <si>
+    <t>1011537</t>
+  </si>
+  <si>
+    <t>vinay2785</t>
+  </si>
+  <si>
+    <t>616446311</t>
+  </si>
+  <si>
+    <t>1011291011743</t>
+  </si>
+  <si>
+    <t>421348099257</t>
+  </si>
+  <si>
+    <t>9192</t>
+  </si>
+  <si>
+    <t>1011743</t>
+  </si>
+  <si>
+    <t>$880</t>
+  </si>
+  <si>
+    <t>vinay1087</t>
+  </si>
+  <si>
+    <t>895744947</t>
+  </si>
+  <si>
+    <t>vinay4738</t>
+  </si>
+  <si>
+    <t>987728276</t>
+  </si>
+  <si>
+    <t>vinay4442</t>
+  </si>
+  <si>
+    <t>677387648</t>
+  </si>
+  <si>
+    <t>$860</t>
+  </si>
+  <si>
+    <t>vinay1856</t>
+  </si>
+  <si>
+    <t>631884197</t>
+  </si>
+  <si>
+    <t>1011321011548</t>
+  </si>
+  <si>
+    <t>421319869704</t>
+  </si>
+  <si>
+    <t>7998</t>
+  </si>
+  <si>
+    <t>1011548</t>
+  </si>
+  <si>
+    <t>$980</t>
+  </si>
+  <si>
+    <t>vinay3520</t>
+  </si>
+  <si>
+    <t>970359824</t>
+  </si>
+  <si>
+    <t>1011931011391</t>
+  </si>
+  <si>
+    <t>421331545277</t>
+  </si>
+  <si>
+    <t>9920</t>
+  </si>
+  <si>
+    <t>1011391</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -473,7 +1076,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -507,19 +1110,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,254 +1427,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618505B5-BC18-40DF-B31F-D9D1863412AA}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACD1E75-344E-44D3-8D09-7F4263CF6908}">
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.6328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.26953125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.36328125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.6328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="8.08984375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="8.90625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.08984375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.81640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.36328125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="14.08984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="O1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="R2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G6" t="s">
+        <v>328</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1BF66414-8B70-4196-9F84-6F432035D019}"/>
+    <hyperlink ref="R2" r:id="rId2" xr:uid="{B8F36A5A-7815-409F-BAC9-44B47379C9D2}"/>
+    <hyperlink ref="T2" r:id="rId3" xr:uid="{ADE9408E-0707-4A69-B77D-C726E8C3AAEF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4B8AC6-186E-4836-8ABD-622235DB4FEE}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="E2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1052,57 +1706,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6E95A9-5958-495C-AC30-1DA708189BFF}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004AA42-F8FF-45C9-AB36-1F51EDB304F0}">
   <dimension ref="A1:B100"/>
   <sheetViews>
@@ -1112,808 +1715,808 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.26953125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="4" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="4" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="4" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="4" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="4" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="4" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="4" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="4" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="4" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="4" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="4" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="4" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" s="4" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="4" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="4" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B74" s="4" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="4" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="4" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B77" s="4" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="4" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" s="4" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="4" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" s="4" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" s="4" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="4" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B85" s="4" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B86" s="4" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" s="4" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B88" s="4" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B89" s="4" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B90" s="4" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B91" s="4" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B92" s="4" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B93" s="4" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B94" s="4" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B95" s="4" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B66EEE0E-7793-4D98-9BEE-A78371A6E345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11620" windowHeight="6330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="6330"/>
   </bookViews>
   <sheets>
-    <sheet name="contact" sheetId="3" r:id="rId1"/>
-    <sheet name="org" sheetId="1" r:id="rId2"/>
-    <sheet name="product" sheetId="4" r:id="rId3"/>
+    <sheet name="ThirdParty" sheetId="3" r:id="rId1"/>
+    <sheet name="productInvoice" sheetId="1" r:id="rId2"/>
+    <sheet name="UserGroups" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="MRP" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:E15"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="120">
   <si>
     <t>TC_ID</t>
   </si>
@@ -32,15 +31,9 @@
     <t>TestcaseName</t>
   </si>
   <si>
-    <t>organizationName</t>
-  </si>
-  <si>
     <t>tc_01</t>
   </si>
   <si>
-    <t>createorgtest</t>
-  </si>
-  <si>
     <t>ProductCat</t>
   </si>
   <si>
@@ -353,104 +346,50 @@
     <t>v-50</t>
   </si>
   <si>
-    <t>createOrgWithType</t>
-  </si>
-  <si>
-    <t>tc_02</t>
-  </si>
-  <si>
-    <t>tc_03</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>createOrgWithPhoneNumber</t>
-  </si>
-  <si>
-    <t>Industries</t>
-  </si>
-  <si>
-    <t>tc_04</t>
-  </si>
-  <si>
     <t>tc_05</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>createContactWithSupportDateTest</t>
-  </si>
-  <si>
-    <t>createContactWithOrgTest</t>
-  </si>
-  <si>
     <t>OrgName</t>
   </si>
   <si>
     <t>ContactLastName</t>
   </si>
   <si>
-    <t>instagram_</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Press</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>Deepak_</t>
-  </si>
-  <si>
-    <t>tc_06</t>
-  </si>
-  <si>
-    <t>FaceBook_</t>
-  </si>
-  <si>
-    <t>createcontactTest</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>9880008898</t>
-  </si>
-  <si>
-    <t>DeleteOrgTest</t>
-  </si>
-  <si>
-    <t>BrandName</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>iphone</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 (128GB) - Black</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro (1 TB) - Space Black</t>
-  </si>
-  <si>
-    <t>Apple iPhone 14 Pro Max (128 GB) - Space Black</t>
-  </si>
-  <si>
-    <t>faceBook_kdd</t>
+    <t>createCustomerTest</t>
+  </si>
+  <si>
+    <t>Solar Energy_</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>createProspectTest</t>
+  </si>
+  <si>
+    <t>IREDA</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>CName</t>
+  </si>
+  <si>
+    <t>PName</t>
+  </si>
+  <si>
+    <t>CityName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +408,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,13 +456,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -613,7 +561,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -790,29 +738,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618505B5-BC18-40DF-B31F-D9D1863412AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,32 +770,36 @@
       <c r="C1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,34 +807,38 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="3"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,28 +846,20 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
   </sheetData>
@@ -920,131 +868,123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="3"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1052,50 +992,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6E95A9-5958-495C-AC30-1DA708189BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>138</v>
-      </c>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,820 +1027,834 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004AA42-F8FF-45C9-AB36-1F51EDB304F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="2" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="2" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="2" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="2" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="2" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="2" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="2" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="4" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="4" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="4" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="4" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="4" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="4" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="4" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="4" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="4" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="4" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="4" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="4" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="4" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="4" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="4" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="4" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="4" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" s="4" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="4" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="4" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B74" s="4" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="4" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="4" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B77" s="4" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="4" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" s="4" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="4" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" s="4" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" s="4" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="4" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B85" s="4" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B86" s="4" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" s="4" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B88" s="4" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B89" s="4" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B90" s="4" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B91" s="4" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B92" s="4" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B93" s="4" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B94" s="4" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B95" s="4" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B96" s="4" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97" s="4" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" s="4" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -370,9 +370,6 @@
     <t>createProspectTest</t>
   </si>
   <si>
-    <t>IREDA</t>
-  </si>
-  <si>
     <t>Mumbai</t>
   </si>
   <si>
@@ -383,6 +380,9 @@
   </si>
   <si>
     <t>CityName</t>
+  </si>
+  <si>
+    <t>IREDA_</t>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,7 +749,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -768,10 +768,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>107</v>
@@ -807,10 +807,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>107</v>
@@ -824,10 +824,10 @@
         <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E5" s="2"/>
     </row>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="122">
   <si>
     <t>TC_ID</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t>IREDA_</t>
+  </si>
+  <si>
+    <t>Ref. Customer</t>
+  </si>
+  <si>
+    <t>100_</t>
   </si>
 </sst>
 </file>
@@ -738,7 +744,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -748,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -758,6 +764,7 @@
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -774,7 +781,7 @@
         <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -790,7 +797,9 @@
       <c r="D2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
   <si>
     <t>TC_ID</t>
   </si>
@@ -389,19 +389,75 @@
   </si>
   <si>
     <t>100_</t>
+  </si>
+  <si>
+    <t>Discription</t>
+  </si>
+  <si>
+    <t>netPrice</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>status2</t>
+  </si>
+  <si>
+    <t>Validated (proposal is open)</t>
+  </si>
+  <si>
+    <t>status1</t>
+  </si>
+  <si>
+    <t>Draft (needs to be validated)</t>
+  </si>
+  <si>
+    <t>Solar Panel</t>
+  </si>
+  <si>
+    <t>25000'</t>
+  </si>
+  <si>
+    <t>2'</t>
+  </si>
+  <si>
+    <t>1'</t>
+  </si>
+  <si>
+    <t>200_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF211A1D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -462,16 +518,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,7 +808,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -752,127 +816,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="12" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="12"/>
+    <col min="11" max="11" width="29.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="F2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -892,108 +1036,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="5"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1450,402 +1594,402 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="4" t="s">
+      <c r="A51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="4" t="s">
+      <c r="A52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="A53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="A54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="A56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="A58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="A59" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="A60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="A62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="A63" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="A64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="A65" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="4" t="s">
+      <c r="A66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="4" t="s">
+      <c r="A67" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="A68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="A69" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="A70" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="A71" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="A73" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="4" t="s">
+      <c r="A74" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="A75" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="A76" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="A78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="A79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="A83" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B84" s="4" t="s">
+      <c r="A84" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="4" t="s">
+      <c r="A85" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="4" t="s">
+      <c r="A86" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="A87" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" s="4" t="s">
+      <c r="A88" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89" s="4" t="s">
+      <c r="A89" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B90" s="4" t="s">
+      <c r="A90" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" s="4" t="s">
+      <c r="A91" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B92" s="4" t="s">
+      <c r="A92" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" s="4" t="s">
+      <c r="A93" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B94" s="4" t="s">
+      <c r="A94" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B95" s="4" t="s">
+      <c r="A95" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="A96" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97" s="4" t="s">
+      <c r="A97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98" s="4" t="s">
+      <c r="A98" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B99" s="4" t="s">
+      <c r="A99" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B100" s="4" t="s">
+      <c r="A100" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>106</v>
       </c>
     </row>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="132">
   <si>
     <t>TC_ID</t>
   </si>
@@ -346,18 +346,6 @@
     <t>v-50</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>tc_05</t>
-  </si>
-  <si>
-    <t>OrgName</t>
-  </si>
-  <si>
-    <t>ContactLastName</t>
-  </si>
-  <si>
     <t>createCustomerTest</t>
   </si>
   <si>
@@ -428,6 +416,9 @@
   </si>
   <si>
     <t>200_</t>
+  </si>
+  <si>
+    <t>tc_02</t>
   </si>
 </sst>
 </file>
@@ -818,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -844,31 +835,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="H1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -876,34 +867,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="J2" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -921,66 +912,66 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="H4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="J4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="13" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -997,15 +988,9 @@
       <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="13"/>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -799,7 +799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -810,7 +810,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="141">
   <si>
     <t>TC_ID</t>
   </si>
@@ -397,9 +397,6 @@
     <t>Validated (proposal is open)</t>
   </si>
   <si>
-    <t>status1</t>
-  </si>
-  <si>
     <t>Draft (needs to be validated)</t>
   </si>
   <si>
@@ -419,6 +416,36 @@
   </si>
   <si>
     <t>tc_02</t>
+  </si>
+  <si>
+    <t>status1for proposal</t>
+  </si>
+  <si>
+    <t>status1 for proposal</t>
+  </si>
+  <si>
+    <t>Status  for contract</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>Status of Contract after validate</t>
+  </si>
+  <si>
+    <t>Not running</t>
+  </si>
+  <si>
+    <t>Status of Contract after Activate</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Status of Contract after Closed</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -509,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -518,15 +545,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,7 +848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -807,141 +856,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="12" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="12"/>
-    <col min="11" max="11" width="29.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="6.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="9" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="9"/>
+    <col min="11" max="11" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:15" ht="41.25" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="41.25" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="38.25">
+      <c r="A4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H4" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I4" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J4" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K4" s="16" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="44.25" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>110</v>
@@ -953,51 +1051,63 @@
         <v>111</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="11" t="s">
+      <c r="L5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="13"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
   <si>
     <t>TC_ID</t>
   </si>
@@ -446,13 +446,19 @@
   </si>
   <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t>Status for Order after validate</t>
+  </si>
+  <si>
+    <t>Validated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +482,11 @@
       <color rgb="FF211A1D"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -536,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -575,6 +586,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,7 +862,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -856,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -876,10 +890,11 @@
     <col min="12" max="12" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="9"/>
+    <col min="16" max="16" width="13.7109375" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="41.25" customHeight="1">
+    <row r="1" spans="1:16" ht="41.25" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -926,7 +941,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="41.25" customHeight="1">
+    <row r="2" spans="1:16" ht="41.25" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
@@ -973,7 +988,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -990,7 +1005,7 @@
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
-    <row r="4" spans="1:15" ht="38.25">
+    <row r="4" spans="1:16" ht="38.25">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -1036,8 +1051,11 @@
       <c r="O4" s="15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="44.25" customHeight="1">
+      <c r="P4" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="44.25" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>130</v>
       </c>
@@ -1083,15 +1101,18 @@
       <c r="O5" s="13" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1123,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="145">
   <si>
     <t>TC_ID</t>
   </si>
@@ -452,13 +452,19 @@
   </si>
   <si>
     <t>Validated</t>
+  </si>
+  <si>
+    <t>Not paid</t>
+  </si>
+  <si>
+    <t>Status Invoice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +493,12 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF211A1D"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -547,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -589,6 +601,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,7 +880,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -873,7 +891,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P5"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -940,6 +958,9 @@
       <c r="O1" s="15" t="s">
         <v>139</v>
       </c>
+      <c r="P1" s="22" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="41.25" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -986,6 +1007,9 @@
       </c>
       <c r="O2" s="17" t="s">
         <v>140</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:16">

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="147">
   <si>
     <t>TC_ID</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t>Status Invoice</t>
+  </si>
+  <si>
+    <t>Status Paid</t>
+  </si>
+  <si>
+    <t>0.00'</t>
   </si>
 </sst>
 </file>
@@ -880,7 +886,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -888,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -909,10 +915,11 @@
     <col min="13" max="14" width="15" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" style="9" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="9" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="9"/>
+    <col min="17" max="17" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="41.25" customHeight="1">
+    <row r="1" spans="1:17" ht="41.25" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -961,8 +968,11 @@
       <c r="P1" s="22" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="41.25" customHeight="1">
+      <c r="Q1" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="41.25" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
@@ -1011,8 +1021,11 @@
       <c r="P2" s="23" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1029,7 +1042,7 @@
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
-    <row r="4" spans="1:16" ht="38.25">
+    <row r="4" spans="1:17" ht="38.25">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1092,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="44.25" customHeight="1">
+    <row r="5" spans="1:17" ht="44.25" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>130</v>
       </c>
@@ -1129,14 +1142,14 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1160,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>

--- a/GUISeleniumFramework/testdata/testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/testScriptdata.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHIDUSD\git\Dolibarr_GUIFramework_Testing\GUISeleniumFramework\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13005" windowHeight="4680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ThirdParty" sheetId="3" r:id="rId1"/>
-    <sheet name="productInvoice" sheetId="1" r:id="rId2"/>
-    <sheet name="UserGroups" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="MRP" sheetId="5" r:id="rId5"/>
+    <sheet name="ProductsAndServices" sheetId="6" r:id="rId2"/>
+    <sheet name="productInvoice" sheetId="1" r:id="rId3"/>
+    <sheet name="UserGroups" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="MRP" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="186">
   <si>
     <t>TC_ID</t>
   </si>
@@ -383,13 +389,211 @@
   </si>
   <si>
     <t>IREDA_</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>shortName</t>
+  </si>
+  <si>
+    <t>addIn</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>CreateInvoiceAndPaymentAndValidateForProspect</t>
+  </si>
+  <si>
+    <t>ClosingContractForProspect</t>
+  </si>
+  <si>
+    <t>CreateWarehouseAndProductAndVerify</t>
+  </si>
+  <si>
+    <t>CreateServicesAndVerifyInList</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Texas, USA.</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>United States (US)</t>
+  </si>
+  <si>
+    <t>RMW_001</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>75001</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>sellStatus</t>
+  </si>
+  <si>
+    <t>productRef</t>
+  </si>
+  <si>
+    <t>purchaseStatus</t>
+  </si>
+  <si>
+    <t>publicUrl</t>
+  </si>
+  <si>
+    <t>stockLimit</t>
+  </si>
+  <si>
+    <t>desiredStock</t>
+  </si>
+  <si>
+    <t>natureOfProduct</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New_Warehouse_</t>
+  </si>
+  <si>
+    <t>NWH_</t>
+  </si>
+  <si>
+    <t>New_Warehouse_</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>customCode</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>sellingPrice</t>
+  </si>
+  <si>
+    <t>minSellingPrice</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>New_Prod_</t>
+  </si>
+  <si>
+    <t>For sale</t>
+  </si>
+  <si>
+    <t>For purchase</t>
+  </si>
+  <si>
+    <t>https://dolibarr/newprod_</t>
+  </si>
+  <si>
+    <t>Manufactured product</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>NPD_</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>New_Service_</t>
+  </si>
+  <si>
+    <t>NSC_</t>
+  </si>
+  <si>
+    <t>https://dolibarr/newservice_</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>180</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -466,6 +670,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +767,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -561,7 +802,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -738,21 +979,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
@@ -760,7 +1001,7 @@
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +1018,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -792,14 +1033,14 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +1057,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>108</v>
       </c>
@@ -831,14 +1072,14 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +1096,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -868,21 +1109,541 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12" style="11" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12" style="11" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="11"/>
+    <col min="14" max="14" width="13.7109375" style="11" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="11"/>
+    <col min="17" max="17" width="11.85546875" style="11" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="14" style="11" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="11" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -890,7 +1651,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -898,7 +1659,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -906,7 +1667,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -914,7 +1675,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -922,7 +1683,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -930,7 +1691,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -938,7 +1699,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -946,7 +1707,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -954,7 +1715,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -962,7 +1723,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -970,7 +1731,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -978,7 +1739,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -991,33 +1752,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
@@ -1026,21 +1787,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1048,7 +1809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +1817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1080,7 +1841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1088,7 +1849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1104,7 +1865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1112,7 +1873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1120,7 +1881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1128,7 +1889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +1897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1144,7 +1905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1152,7 +1913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1160,7 +1921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1176,7 +1937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1184,7 +1945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1200,7 +1961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1208,7 +1969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -1232,7 +1993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +2001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1248,7 +2009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1256,7 +2017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1264,7 +2025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1272,7 +2033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -1280,7 +2041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +2049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -1296,7 +2057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -1304,7 +2065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
@@ -1312,7 +2073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -1320,7 +2081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -1328,7 +2089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
@@ -1336,7 +2097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +2105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -1352,7 +2113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +2121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -1368,7 +2129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +2137,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
@@ -1384,7 +2145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>12</v>
       </c>
@@ -1392,7 +2153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -1400,7 +2161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -1408,7 +2169,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +2177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -1424,7 +2185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -1432,7 +2193,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
@@ -1440,7 +2201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
@@ -1448,7 +2209,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
@@ -1456,7 +2217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>56</v>
       </c>
@@ -1464,7 +2225,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
@@ -1472,7 +2233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>56</v>
       </c>
@@ -1480,7 +2241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
@@ -1488,7 +2249,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
@@ -1496,7 +2257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
@@ -1504,7 +2265,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>56</v>
       </c>
@@ -1512,7 +2273,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>56</v>
       </c>
@@ -1520,7 +2281,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>56</v>
       </c>
@@ -1528,7 +2289,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>56</v>
       </c>
@@ -1536,7 +2297,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>56</v>
       </c>
@@ -1544,7 +2305,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>56</v>
       </c>
@@ -1552,7 +2313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>56</v>
       </c>
@@ -1560,7 +2321,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>56</v>
       </c>
@@ -1568,7 +2329,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>56</v>
       </c>
@@ -1576,7 +2337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>56</v>
       </c>
@@ -1584,7 +2345,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>56</v>
       </c>
@@ -1592,7 +2353,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>56</v>
       </c>
@@ -1600,7 +2361,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>56</v>
       </c>
@@ -1608,7 +2369,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>56</v>
       </c>
@@ -1616,7 +2377,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>56</v>
       </c>
@@ -1624,7 +2385,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>56</v>
       </c>
@@ -1632,7 +2393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>56</v>
       </c>
@@ -1640,7 +2401,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>56</v>
       </c>
@@ -1648,7 +2409,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>56</v>
       </c>
@@ -1656,7 +2417,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>56</v>
       </c>
@@ -1664,7 +2425,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>56</v>
       </c>
@@ -1672,7 +2433,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>56</v>
       </c>
@@ -1680,7 +2441,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>56</v>
       </c>
@@ -1688,7 +2449,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>56</v>
       </c>
@@ -1696,7 +2457,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>56</v>
       </c>
@@ -1704,7 +2465,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>56</v>
       </c>
@@ -1712,7 +2473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>56</v>
       </c>
@@ -1720,7 +2481,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>56</v>
       </c>
@@ -1728,7 +2489,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>56</v>
       </c>
@@ -1736,7 +2497,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>56</v>
       </c>
@@ -1744,7 +2505,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>56</v>
       </c>
@@ -1752,7 +2513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>56</v>
       </c>
@@ -1760,7 +2521,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>56</v>
       </c>
@@ -1768,7 +2529,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>56</v>
       </c>
@@ -1776,7 +2537,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>56</v>
       </c>
@@ -1784,7 +2545,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>56</v>
       </c>
@@ -1792,7 +2553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>56</v>
       </c>
@@ -1800,7 +2561,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>56</v>
       </c>
@@ -1808,7 +2569,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>56</v>
       </c>
@@ -1816,7 +2577,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>56</v>
       </c>
@@ -1824,7 +2585,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>56</v>
       </c>
@@ -1832,7 +2593,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>56</v>
       </c>
@@ -1845,15 +2606,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
